--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +546,10 @@
         <v>0.044652</v>
       </c>
       <c r="I2">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J2">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="N2">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="O2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="P2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="Q2">
-        <v>0.001716105354666667</v>
+        <v>0.001118413528</v>
       </c>
       <c r="R2">
-        <v>0.015444948192</v>
+        <v>0.010065721752</v>
       </c>
       <c r="S2">
-        <v>0.08371445503254582</v>
+        <v>0.03199019745577655</v>
       </c>
       <c r="T2">
-        <v>0.08371445503254581</v>
+        <v>0.03199019745577654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +608,10 @@
         <v>0.044652</v>
       </c>
       <c r="I3">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J3">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +626,10 @@
         <v>1.502253</v>
       </c>
       <c r="O3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="P3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="Q3">
         <v>0.007453177884000001</v>
@@ -632,10 +638,10 @@
         <v>0.067078600956</v>
       </c>
       <c r="S3">
-        <v>0.3635783334181577</v>
+        <v>0.2131846818846659</v>
       </c>
       <c r="T3">
-        <v>0.3635783334181576</v>
+        <v>0.2131846818846659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,45 +670,45 @@
         <v>0.044652</v>
       </c>
       <c r="I4">
-        <v>0.7237422199170125</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="J4">
-        <v>0.7237422199170124</v>
+        <v>0.6275843652054141</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="N4">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="O4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="P4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="Q4">
-        <v>0.005667078038666667</v>
+        <v>0.006829126493333334</v>
       </c>
       <c r="R4">
-        <v>0.051003702348</v>
+        <v>0.06146213844</v>
       </c>
       <c r="S4">
-        <v>0.2764494314663091</v>
+        <v>0.1953348198164929</v>
       </c>
       <c r="T4">
-        <v>0.276449431466309</v>
+        <v>0.1953348198164929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.014884</v>
+      </c>
+      <c r="H5">
+        <v>0.044652</v>
+      </c>
+      <c r="I5">
+        <v>0.6275843652054141</v>
+      </c>
+      <c r="J5">
+        <v>0.6275843652054141</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.005681333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.017044</v>
-      </c>
-      <c r="I5">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="J5">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.1152986666666667</v>
+        <v>0.4048450000000001</v>
       </c>
       <c r="N5">
-        <v>0.345896</v>
+        <v>1.214535</v>
       </c>
       <c r="O5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="P5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="Q5">
-        <v>0.0006550501582222222</v>
+        <v>0.006025712980000001</v>
       </c>
       <c r="R5">
-        <v>0.005895451424</v>
+        <v>0.05423141682</v>
       </c>
       <c r="S5">
-        <v>0.03195442917617825</v>
+        <v>0.1723546284233033</v>
       </c>
       <c r="T5">
-        <v>0.03195442917617825</v>
+        <v>0.1723546284233033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.014884</v>
+      </c>
+      <c r="H6">
+        <v>0.044652</v>
+      </c>
+      <c r="I6">
+        <v>0.6275843652054141</v>
+      </c>
+      <c r="J6">
+        <v>0.6275843652054141</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.005681333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.017044</v>
-      </c>
-      <c r="I6">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="J6">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.5007510000000001</v>
+        <v>0.034576</v>
       </c>
       <c r="N6">
-        <v>1.502253</v>
+        <v>0.103728</v>
       </c>
       <c r="O6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="P6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="Q6">
-        <v>0.002844933348</v>
+        <v>0.000514629184</v>
       </c>
       <c r="R6">
-        <v>0.025604400132</v>
+        <v>0.004631662656</v>
       </c>
       <c r="S6">
-        <v>0.1387805499144289</v>
+        <v>0.0147200376251754</v>
       </c>
       <c r="T6">
-        <v>0.1387805499144289</v>
+        <v>0.0147200376251754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.026497</v>
+      </c>
+      <c r="I7">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J7">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.075142</v>
+      </c>
+      <c r="N7">
+        <v>0.225426</v>
+      </c>
+      <c r="O7">
+        <v>0.05097354113547087</v>
+      </c>
+      <c r="P7">
+        <v>0.05097354113547086</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006636791913333333</v>
+      </c>
+      <c r="R7">
+        <v>0.005973112722</v>
+      </c>
+      <c r="S7">
+        <v>0.01898334367969432</v>
+      </c>
+      <c r="T7">
+        <v>0.01898334367969432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.026497</v>
+      </c>
+      <c r="I8">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J8">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="M8">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.502253</v>
+      </c>
+      <c r="O8">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="P8">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="Q8">
+        <v>0.004422799749</v>
+      </c>
+      <c r="R8">
+        <v>0.039805197741</v>
+      </c>
+      <c r="S8">
+        <v>0.1265061926878525</v>
+      </c>
+      <c r="T8">
+        <v>0.1265061926878525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.026497</v>
+      </c>
+      <c r="I9">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J9">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.37647</v>
+      </c>
+      <c r="O9">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="P9">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="Q9">
+        <v>0.004052480621111111</v>
+      </c>
+      <c r="R9">
+        <v>0.03647232559</v>
+      </c>
+      <c r="S9">
+        <v>0.1159138833798623</v>
+      </c>
+      <c r="T9">
+        <v>0.1159138833798624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.026497</v>
+      </c>
+      <c r="I10">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J10">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.214535</v>
+      </c>
+      <c r="O10">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="P10">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="Q10">
+        <v>0.003575725988333334</v>
+      </c>
+      <c r="R10">
+        <v>0.032181533895</v>
+      </c>
+      <c r="S10">
+        <v>0.1022771788348174</v>
+      </c>
+      <c r="T10">
+        <v>0.1022771788348174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.008832333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.026497</v>
+      </c>
+      <c r="I11">
+        <v>0.372415634794586</v>
+      </c>
+      <c r="J11">
+        <v>0.3724156347945861</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.005681333333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.017044</v>
-      </c>
-      <c r="I7">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="J7">
-        <v>0.2762577800829876</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3807496666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.142249</v>
-      </c>
-      <c r="O7">
-        <v>0.3819722324586895</v>
-      </c>
-      <c r="P7">
-        <v>0.3819722324586895</v>
-      </c>
-      <c r="Q7">
-        <v>0.002163165772888889</v>
-      </c>
-      <c r="R7">
-        <v>0.019468491956</v>
-      </c>
-      <c r="S7">
-        <v>0.1055228009923805</v>
-      </c>
-      <c r="T7">
-        <v>0.1055228009923805</v>
+      <c r="M11">
+        <v>0.034576</v>
+      </c>
+      <c r="N11">
+        <v>0.103728</v>
+      </c>
+      <c r="O11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q11">
+        <v>0.0003053867573333334</v>
+      </c>
+      <c r="R11">
+        <v>0.002748480816</v>
+      </c>
+      <c r="S11">
+        <v>0.008735036212359413</v>
+      </c>
+      <c r="T11">
+        <v>0.008735036212359413</v>
       </c>
     </row>
   </sheetData>
